--- a/VersionRecords/Version 3.0.0.1 20160303/版本Bug和特性计划及评审表v3.0.0.1_极光组.xlsx
+++ b/VersionRecords/Version 3.0.0.1 20160303/版本Bug和特性计划及评审表v3.0.0.1_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -165,6 +165,10 @@
   <si>
     <t>否</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约租客创建逻辑修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -855,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1029,15 +1033,31 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="B4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13">
+        <v>42432</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="13">
+        <v>42432</v>
+      </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="14"/>

--- a/VersionRecords/Version 3.0.0.1 20160303/版本Bug和特性计划及评审表v3.0.0.1_极光组.xlsx
+++ b/VersionRecords/Version 3.0.0.1 20160303/版本Bug和特性计划及评审表v3.0.0.1_极光组.xlsx
@@ -15,12 +15,12 @@
     <sheet name="版本2.1.1.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -170,6 +170,14 @@
     <t>补录租约租客创建逻辑修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC房态图去除水电煤账单访问功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -226,12 +234,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -860,7 +870,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,15 +1083,31 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="B5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13">
+        <v>42432</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13">
+        <v>42432</v>
+      </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="14"/>

--- a/VersionRecords/Version 3.0.0.1 20160303/版本Bug和特性计划及评审表v3.0.0.1_极光组.xlsx
+++ b/VersionRecords/Version 3.0.0.1 20160303/版本Bug和特性计划及评审表v3.0.0.1_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -176,6 +176,58 @@
   </si>
   <si>
     <t>房东PC房态图去除水电煤账单访问功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -869,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -985,10 +1037,18 @@
         <v>30</v>
       </c>
       <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42432</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="32" t="s">
@@ -1027,14 +1087,22 @@
         <v>37</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42432</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="33" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
@@ -1069,13 +1137,23 @@
         <v>37</v>
       </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42432</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="33"/>
+      <c r="R4" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
@@ -1109,13 +1187,23 @@
         <v>37</v>
       </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42432</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="33"/>
+      <c r="R5" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
